--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_87.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_87.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,88 +488,90 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(6.74, 21.54)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(5.7, 19.72)]</t>
+          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:07.160000', '0:00:19.200000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(105.4, 123.26)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(9.18, 14.22)]</t>
+          <t>[('0:00:07.400000', '0:00:18.240000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:14.200000', '0:00:18.800000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
@@ -573,630 +580,598 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(18.64, 28.9)]</t>
+          <t>[('0:00:15.300000', '0:00:17.780000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:00.120000', '0:01:01.360000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7/A', 'A:min', 'D:min/A', 'A:min']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(53.28, 65.12)]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(25.26, 36.1)]</t>
+          <t>[('0:01:06.060000', '0:01:08.180000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:11.560000', '0:01:20')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(81.62, 103.56)]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(79.12, 99.32)]</t>
+          <t>[('0:00:02.460000', '0:00:17.160000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:14.180000', '0:01:27.700000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0572717806317251</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min', 'A:min/b7', 'A:min/6']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'D:min', 'D:min/A']]</t>
+          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.06, 6.451609)]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(33.9, 49.06)]</t>
+          <t>[('0:00:27.520000', '0:00:38.500000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+          <t>[('0:00:46.060000', '0:00:55.660000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8)]</t>
+          <t>[('0:00:18.240000', '0:00:29.100000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:07.800000', '0:00:13.900000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.09999999999999999</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['G', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(43.38, 45.8)]</t>
+          <t>[['B', 'B/3', 'E']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[('0:00:10.090897', '0:00:16.615704')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:02:33.617981', '0:02:41.988775')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(105.28, 122.26)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(9.18, 14.22)]</t>
+          <t>[('0:00:35.140000', '0:00:42.320000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:30.920000', '0:01:40.480000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'G:7/3']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D:7']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(3.36998, 7.949297)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(63.779977, 75.482834)]</t>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
-        </is>
-      </c>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1319148936170213</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Eb', 'F', 'Bb']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(44.917324, 48.272607)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(52.750498, 59.809365)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:00.380000', '0:00:21.840000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0976890756302521</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'A']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(76.889251, 80.407074)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(6.09, 13.659705)]</t>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(44.2, 54.16)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(23.14, 32.76)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
